--- a/Thesis/Overleaf Version/output fungsi ketiga utk present.xlsx
+++ b/Thesis/Overleaf Version/output fungsi ketiga utk present.xlsx
@@ -374,10 +374,10 @@
   <dimension ref="A1:E2539"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="E34 E37 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -42956,10 +42956,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="E34 E37 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43109,10 +43109,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="2" sqref="E34 E37 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43257,10 +43257,10 @@
   <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
+      <selection pane="topLeft" activeCell="A196" activeCellId="2" sqref="E34 E37 A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -48616,10 +48616,10 @@
   <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="2" sqref="E34 E37 F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -53974,11 +53974,11 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="1" sqref="E34 E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.45"/>
@@ -55098,10 +55098,10 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+      <selection pane="topLeft" activeCell="A73" activeCellId="2" sqref="E34 E37 A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -55973,10 +55973,10 @@
   <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
+      <selection pane="topLeft" activeCell="C107" activeCellId="2" sqref="E34 E37 C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
